--- a/src/test/java/resourse/Capitals (2).xlsx
+++ b/src/test/java/resourse/Capitals (2).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>NUFUS</t>
+  </si>
+  <si>
+    <t>NÜFUS</t>
+  </si>
+  <si>
+    <t>2161000</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -384,6 +390,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="n">
+        <v>712816.0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -392,6 +401,9 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -400,6 +412,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="n">
+        <v>8982000.0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -408,6 +423,9 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="n">
+        <v>5663000.0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -416,6 +434,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">

--- a/src/test/java/resourse/Capitals (2).xlsx
+++ b/src/test/java/resourse/Capitals (2).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>COUNTRY</t>
   </si>
